--- a/chap07-express/uploads/엑셀연습1.xlsx
+++ b/chap07-express/uploads/엑셀연습1.xlsx
@@ -288,7 +288,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="31.9" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
